--- a/data/trans_orig/P04B1_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A938DFE-61EF-4E7D-9F9F-4D7AA4CE26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA958C8-CE71-42EC-9C8C-2A3F10F9F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BE311EC-B3B8-4DEE-81A7-2ECB5774D4BA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4E3D798-67E8-4802-AA2D-24B1E0A2EAA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>84,98%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>89,16%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>87,34%</t>
   </si>
   <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
   </si>
   <si>
     <t>12,66%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>67,26%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>65,4%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>61,98%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>34,6%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
   </si>
   <si>
     <t>38,02%</t>
   </si>
   <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>76,11%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>75,24%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>24,76%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,97 @@
     <t>61,53%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>59,82%</t>
   </si>
   <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>38,47%</t>
   </si>
   <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>67,49%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
+    <t>69,77%</t>
   </si>
   <si>
     <t>67,05%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
+    <t>69,0%</t>
   </si>
   <si>
     <t>32,51%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>30,23%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>31,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA90CD99-459B-46FA-83F0-5F8F74CB5037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9D10B-C0A0-4D01-891B-3B82E770301D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,10 +1730,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>5882</v>
@@ -1754,13 +1742,13 @@
         <v>4832442</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>1098647</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>1730</v>
@@ -1790,13 +1778,13 @@
         <v>1276221</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>2842</v>
@@ -1805,13 +1793,13 @@
         <v>2374868</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B1_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B1_1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CA958C8-CE71-42EC-9C8C-2A3F10F9F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EB7464F-6B8E-4542-9CD5-06E4C27F440D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4E3D798-67E8-4802-AA2D-24B1E0A2EAA3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C5FD737D-673C-474C-AD0E-1E7F584B40D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según si su vivienda tiene una temperatura suficientemente cálida durante los meses fríos en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,340 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>67,26%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9D10B-C0A0-4D01-891B-3B82E770301D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D5B172-AB98-4633-901A-62DB5F0980A2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>101</v>
+        <v>522</v>
       </c>
       <c r="D4" s="7">
-        <v>85747</v>
+        <v>457717</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>224</v>
+        <v>943</v>
       </c>
       <c r="I4" s="7">
-        <v>116558</v>
+        <v>549909</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>325</v>
+        <v>1465</v>
       </c>
       <c r="N4" s="7">
-        <v>202305</v>
+        <v>1007626</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7">
-        <v>15158</v>
+        <v>176695</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="I5" s="7">
-        <v>14175</v>
+        <v>175421</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>505</v>
       </c>
       <c r="N5" s="7">
-        <v>29333</v>
+        <v>352116</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>634412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1970</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1359742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>421</v>
+        <v>620</v>
       </c>
       <c r="D7" s="7">
-        <v>369838</v>
+        <v>872223</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>719</v>
+        <v>989</v>
       </c>
       <c r="I7" s="7">
-        <v>436808</v>
+        <v>607503</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1140</v>
+        <v>1609</v>
       </c>
       <c r="N7" s="7">
-        <v>806646</v>
+        <v>1479726</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D8" s="7">
-        <v>179985</v>
+        <v>318515</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>279</v>
+        <v>521</v>
       </c>
       <c r="I8" s="7">
-        <v>183159</v>
+        <v>346474</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>470</v>
+        <v>862</v>
       </c>
       <c r="N8" s="7">
-        <v>363144</v>
+        <v>664989</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>961</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1190738</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1510</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>953977</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2471</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2144715</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>620</v>
+        <v>510</v>
       </c>
       <c r="D10" s="7">
-        <v>678197</v>
+        <v>547496</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>989</v>
+        <v>756</v>
       </c>
       <c r="I10" s="7">
-        <v>653976</v>
+        <v>740689</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1271,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1609</v>
+        <v>1266</v>
       </c>
       <c r="N10" s="7">
-        <v>1332174</v>
+        <v>1288185</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1292,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>358727</v>
+        <v>156088</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1307,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>521</v>
+        <v>290</v>
       </c>
       <c r="I11" s="7">
-        <v>401125</v>
+        <v>192021</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1322,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>862</v>
+        <v>454</v>
       </c>
       <c r="N11" s="7">
-        <v>759852</v>
+        <v>348109</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1343,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>961</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1036924</v>
+        <v>703584</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1510</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1055101</v>
+        <v>932710</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2471</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2092026</v>
+        <v>1636294</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="D13" s="7">
-        <v>553806</v>
+        <v>590624</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1411,10 +1360,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>756</v>
+        <v>938</v>
       </c>
       <c r="I13" s="7">
-        <v>657292</v>
+        <v>691605</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1426,10 +1375,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1266</v>
+        <v>1542</v>
       </c>
       <c r="N13" s="7">
-        <v>1211098</v>
+        <v>1282229</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1438,7 +1387,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>164</v>
+        <v>400</v>
       </c>
       <c r="D14" s="7">
-        <v>173790</v>
+        <v>335176</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>621</v>
+      </c>
+      <c r="I14" s="7">
+        <v>401313</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>290</v>
-      </c>
-      <c r="I14" s="7">
-        <v>216358</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1021</v>
+      </c>
+      <c r="N14" s="7">
+        <v>736489</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>454</v>
-      </c>
-      <c r="N14" s="7">
-        <v>390148</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>727596</v>
+        <v>925800</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873650</v>
+        <v>1092918</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1601246</v>
+        <v>2018718</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>604</v>
+        <v>2256</v>
       </c>
       <c r="D16" s="7">
-        <v>593365</v>
+        <v>2468061</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3626</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2589706</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>938</v>
-      </c>
-      <c r="I16" s="7">
-        <v>686854</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5882</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5057767</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1542</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1280219</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>400</v>
+        <v>1112</v>
       </c>
       <c r="D17" s="7">
-        <v>370987</v>
+        <v>986473</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1730</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1115229</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>621</v>
-      </c>
-      <c r="I17" s="7">
-        <v>461404</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2842</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2101702</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1021</v>
-      </c>
-      <c r="N17" s="7">
-        <v>832391</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>964352</v>
+        <v>3454534</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1148258</v>
+        <v>3704935</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8724</v>
       </c>
       <c r="N18" s="7">
-        <v>2112610</v>
+        <v>7159469</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2256</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2280953</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3626</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2551488</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5882</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4832442</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1112</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1098647</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1730</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1276221</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2842</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2374868</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3379600</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3827709</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7207310</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
